--- a/artfynd/A 35525-2025 artfynd.xlsx
+++ b/artfynd/A 35525-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,6 +882,466 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131117036</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56748</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>205998</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nordfladdermus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Eptesicus nilssonii</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>autobox med tidsexpansion</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Tryggaröd 9, Sk</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>437326</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6227846</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Östra Göinge</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Gryt</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Glänta, inslag av ädellöv.</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>David Alvunger</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Johan Eklöf, Enviro Planning</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131116964</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56762</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100092</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Större brunfladdermus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nyctalus noctula</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Schreber, 1774)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>autobox med tidsexpansion</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Tryggaröd 9, Sk</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>437326</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6227846</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Östra Göinge</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Gryt</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Glänta, inslag av ädellöv.</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>David Alvunger</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Johan Eklöf, Enviro Planning</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131116934</v>
+      </c>
+      <c r="B6" t="n">
+        <v>56769</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>206002</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brunlångöra</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Plecotus auritus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>autobox med tidsexpansion</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Tryggaröd 9, Sk</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>437326</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6227846</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Östra Göinge</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Gryt</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Glänta, inslag av ädellöv.</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>David Alvunger</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Johan Eklöf, Enviro Planning</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131117021</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56746</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100015</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Barbastell</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Barbastella barbastellus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Schreber, 1774)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>autobox med tidsexpansion</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Tryggaröd 9, Sk</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>437326</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6227846</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Östra Göinge</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Gryt</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Glänta, inslag av ädellöv.</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>David Alvunger</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Johan Eklöf, Enviro Planning</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 35525-2025 artfynd.xlsx
+++ b/artfynd/A 35525-2025 artfynd.xlsx
@@ -884,37 +884,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131117036</v>
+        <v>131116964</v>
       </c>
       <c r="B4" t="n">
-        <v>56748</v>
+        <v>56762</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>205998</v>
+        <v>100092</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Större brunfladdermus</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Nyctalus noctula</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Schreber, 1774)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -999,37 +999,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131116964</v>
+        <v>131117036</v>
       </c>
       <c r="B5" t="n">
-        <v>56762</v>
+        <v>56748</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100092</v>
+        <v>205998</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Större brunfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nyctalus noctula</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schreber, 1774)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>443</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>

--- a/artfynd/A 35525-2025 artfynd.xlsx
+++ b/artfynd/A 35525-2025 artfynd.xlsx
@@ -884,37 +884,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131116964</v>
+        <v>131117036</v>
       </c>
       <c r="B4" t="n">
-        <v>56762</v>
+        <v>56748</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100092</v>
+        <v>205998</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Större brunfladdermus</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nyctalus noctula</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schreber, 1774)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>443</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -999,37 +999,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131117036</v>
+        <v>131116964</v>
       </c>
       <c r="B5" t="n">
-        <v>56748</v>
+        <v>56762</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>205998</v>
+        <v>100092</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Större brunfladdermus</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Nyctalus noctula</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(Schreber, 1774)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
